--- a/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>QLGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,86 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>2600</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -758,14 +764,17 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -785,9 +794,12 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E17" s="3">
         <v>10800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,67 +1016,74 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-19400</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1055,45 +1094,51 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1118,9 +1163,12 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,47 +1559,51 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1527,21 +1616,24 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1554,47 +1646,53 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -1603,41 +1701,47 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1662,18 +1766,21 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
@@ -1689,36 +1796,42 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,18 +1886,21 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -1792,14 +1911,17 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,40 +2007,44 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -1925,69 +2058,78 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2007,41 +2149,47 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>16200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13300</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,24 +2378,27 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>1500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>8100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>5100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-80300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,13 +2700,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2529,9 +2727,12 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,13 +2924,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -2731,9 +2951,12 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,21 +3011,24 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>7000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -2812,9 +3041,12 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,36 +3175,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>23000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2987,34 +3235,40 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>QLGN</t>
   </si>
@@ -665,7 +665,9 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -687,22 +689,22 @@
         <v>44196</v>
       </c>
       <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
-      </c>
-      <c r="J7" s="2">
-        <v>42004</v>
       </c>
       <c r="K7" s="2">
         <v>41639</v>
@@ -821,22 +823,22 @@
         <v>3300</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>500</v>
@@ -952,22 +954,22 @@
         <v>14300</v>
       </c>
       <c r="E17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F17" s="3">
         <v>10800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2300</v>
       </c>
       <c r="K17" s="3">
         <v>2100</v>
@@ -1097,11 +1099,11 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1116,22 +1118,22 @@
         <v>-19500</v>
       </c>
       <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-10100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2500</v>
       </c>
       <c r="K23" s="3">
         <v>-2100</v>
@@ -1206,22 +1208,22 @@
         <v>-19500</v>
       </c>
       <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2500</v>
       </c>
       <c r="K26" s="3">
         <v>-2100</v>
@@ -1236,22 +1238,22 @@
         <v>-19500</v>
       </c>
       <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3100</v>
       </c>
       <c r="K27" s="3">
         <v>-2600</v>
@@ -1416,22 +1418,22 @@
         <v>-19500</v>
       </c>
       <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3100</v>
       </c>
       <c r="K33" s="3">
         <v>-2600</v>
@@ -1476,22 +1478,22 @@
         <v>-19500</v>
       </c>
       <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3100</v>
       </c>
       <c r="K35" s="3">
         <v>-2600</v>
@@ -1511,22 +1513,22 @@
         <v>44196</v>
       </c>
       <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
-      </c>
-      <c r="J38" s="2">
-        <v>42004</v>
       </c>
       <c r="K38" s="2">
         <v>41639</v>
@@ -1569,22 +1571,22 @@
         <v>24000</v>
       </c>
       <c r="E41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2700</v>
       </c>
       <c r="K41" s="3">
         <v>400</v>
@@ -1598,14 +1600,14 @@
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>7000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -1632,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1689,13 +1691,13 @@
         <v>2700</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -1704,7 +1706,7 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1719,22 +1721,22 @@
         <v>28200</v>
       </c>
       <c r="E46" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2800</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
@@ -1782,7 +1784,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -1902,7 +1904,7 @@
         <v>500</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -1914,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -1959,22 +1961,22 @@
         <v>29100</v>
       </c>
       <c r="E54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3000</v>
       </c>
       <c r="K54" s="3">
         <v>500</v>
@@ -2017,22 +2019,22 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1100</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
@@ -2061,8 +2063,8 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2077,22 +2079,22 @@
         <v>9800</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2110,19 +2112,19 @@
         <v>1700</v>
       </c>
       <c r="F60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G60" s="3">
         <v>5900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1300</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
@@ -2152,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>16200</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>12400</v>
@@ -2290,19 +2292,19 @@
         <v>1700</v>
       </c>
       <c r="F66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>17500</v>
       </c>
       <c r="K66" s="3">
         <v>13300</v>
@@ -2391,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>200</v>
+      </c>
+      <c r="F70" s="3">
         <v>1500</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>8100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>5100</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2451,22 +2453,22 @@
         <v>-66800</v>
       </c>
       <c r="E72" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-80300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-17900</v>
       </c>
       <c r="K72" s="3">
         <v>-14800</v>
@@ -2571,22 +2573,22 @@
         <v>18300</v>
       </c>
       <c r="E76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-14500</v>
       </c>
       <c r="K76" s="3">
         <v>-12800</v>
@@ -2636,22 +2638,22 @@
         <v>44196</v>
       </c>
       <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
-      </c>
-      <c r="J80" s="2">
-        <v>42004</v>
       </c>
       <c r="K80" s="2">
         <v>41639</v>
@@ -2666,22 +2668,22 @@
         <v>-19500</v>
       </c>
       <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3100</v>
       </c>
       <c r="K81" s="3">
         <v>-2600</v>
@@ -2890,22 +2892,22 @@
         <v>-10200</v>
       </c>
       <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-14500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1200</v>
       </c>
       <c r="K89" s="3">
         <v>-2000</v>
@@ -2933,8 +2935,8 @@
       <c r="D91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3024,13 +3026,13 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3188,22 +3190,22 @@
         <v>34100</v>
       </c>
       <c r="E100" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>23000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>3500</v>
       </c>
       <c r="K100" s="3">
         <v>600</v>
@@ -3248,22 +3250,22 @@
         <v>23800</v>
       </c>
       <c r="E102" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>2300</v>
       </c>
       <c r="K102" s="3">
         <v>-1300</v>

--- a/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>QLGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,65 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
@@ -736,21 +739,24 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
@@ -769,18 +775,21 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,38 +826,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>6100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,18 +889,21 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -900,12 +919,15 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,9 +955,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,47 +970,51 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E17" s="3">
         <v>14300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11400</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1001,12 +1030,15 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,17 +1051,18 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8100</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1045,21 +1078,24 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19400</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1075,20 +1111,23 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1102,45 +1141,51 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,11 +1195,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1162,15 +1207,18 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,18 +1444,21 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E32" s="3">
         <v>8100</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1405,42 +1474,48 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,38 +1647,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
         <v>24000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1603,15 +1692,15 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>7000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,27 +1710,30 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1651,18 +1743,21 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1678,29 +1773,32 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -1709,41 +1807,47 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E46" s="3">
         <v>28200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1771,23 +1875,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1801,17 +1908,20 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -1828,12 +1938,15 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,9 +2007,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1901,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -1921,9 +2040,12 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E54" s="3">
         <v>29100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,47 +2139,51 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2066,72 +2199,81 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>9800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>10400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1700</v>
       </c>
       <c r="F60" s="3">
         <v>1700</v>
       </c>
       <c r="G60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H60" s="3">
         <v>5900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2157,20 +2299,23 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>12400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2186,12 +2331,15 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>10800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1700</v>
       </c>
       <c r="F66" s="3">
         <v>1700</v>
       </c>
       <c r="G66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H66" s="3">
         <v>5900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2393,29 +2560,32 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>1500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>8100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>5100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-66800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-82000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-80300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E76" s="3">
         <v>18300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,8 +2900,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2712,7 +2910,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2732,9 +2930,12 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,19 +3146,20 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -2956,9 +3176,12 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,9 +3242,12 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3026,17 +3255,17 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -3046,9 +3275,12 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,39 +3422,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E100" s="3">
         <v>34100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>23000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3240,37 +3488,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E102" s="3">
         <v>23800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>QLGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,71 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -742,12 +745,15 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -755,11 +761,11 @@
         <v>4300</v>
       </c>
       <c r="E9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -778,21 +784,24 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -811,9 +820,12 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E12" s="3">
         <v>11700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>6100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,21 +908,24 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -922,12 +941,15 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -958,9 +980,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,53 +996,57 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E17" s="3">
         <v>28300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1033,12 +1062,15 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,20 +1084,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,24 +1114,27 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1114,23 +1150,26 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1144,81 +1183,90 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,21 +1513,24 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1477,45 +1546,51 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,41 +1733,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1695,15 +1784,15 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>7000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1713,30 +1802,33 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1746,21 +1838,24 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1776,32 +1871,35 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -1810,44 +1908,50 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E46" s="3">
         <v>20800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1878,9 +1982,12 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1888,16 +1995,16 @@
         <v>1800</v>
       </c>
       <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -1911,20 +2018,23 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>6500</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -1941,12 +2051,15 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,9 +2126,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2023,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2043,9 +2162,12 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E54" s="3">
         <v>22800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,8 +2269,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2149,44 +2279,47 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2202,78 +2335,87 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1700</v>
       </c>
       <c r="G60" s="3">
         <v>1700</v>
       </c>
       <c r="H60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I60" s="3">
         <v>5900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2302,23 +2444,26 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>12400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2334,12 +2479,15 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1700</v>
       </c>
       <c r="G66" s="3">
         <v>1700</v>
       </c>
       <c r="H66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I66" s="3">
         <v>5900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2563,29 +2730,32 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>1500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>8100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>5100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-66800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-82000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-70200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E76" s="3">
         <v>16600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-12800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,19 +3098,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2933,9 +3131,12 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,22 +3366,23 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3179,9 +3399,12 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,30 +3471,33 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -3278,9 +3507,12 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3526,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,65 +3667,71 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>8400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>34100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>23000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3491,40 +3739,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QLGN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>QLGN</t>
   </si>
@@ -917,8 +917,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>4200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1091,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38100</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
         <v>4800</v>
@@ -1127,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16100</v>
+        <v>-21100</v>
       </c>
       <c r="E21" s="3">
         <v>-17800</v>
@@ -1199,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16000</v>
+        <v>-21300</v>
       </c>
       <c r="E23" s="3">
         <v>-17900</v>
@@ -1235,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2000</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1306,8 +1306,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-21000</v>
       </c>
       <c r="E26" s="3">
         <v>-17900</v>
@@ -1342,8 +1342,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-18600</v>
       </c>
       <c r="E27" s="3">
         <v>-17900</v>
@@ -1523,7 +1523,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38100</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
         <v>-4800</v>
@@ -1558,8 +1558,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-18600</v>
       </c>
       <c r="E33" s="3">
         <v>-17900</v>
@@ -1630,8 +1630,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-18600</v>
       </c>
       <c r="E35" s="3">
         <v>-17900</v>
@@ -2348,7 +2348,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="E59" s="3">
         <v>3700</v>
@@ -2796,7 +2796,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>103400</v>
+        <v>-103400</v>
       </c>
       <c r="E72" s="3">
         <v>-84700</v>
@@ -2940,7 +2940,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8800</v>
+        <v>7200</v>
       </c>
       <c r="E76" s="3">
         <v>16600</v>
@@ -3052,8 +3052,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-18600</v>
       </c>
       <c r="E81" s="3">
         <v>-17900</v>
@@ -3321,7 +3321,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13200</v>
+        <v>-13200</v>
       </c>
       <c r="E89" s="3">
         <v>-14700</v>
@@ -3373,7 +3373,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -3481,7 +3481,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -3749,7 +3749,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10500</v>
+        <v>-10500</v>
       </c>
       <c r="E102" s="3">
         <v>-6400</v>
